--- a/data/input/absenteeism_data_0.xlsx
+++ b/data/input/absenteeism_data_0.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72772</v>
+        <v>40907</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rodrigo da Costa</t>
+          <t>Esther Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>6472.55</v>
+        <v>4274.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>52345</v>
+        <v>74361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kamilly Aragão</t>
+          <t>João Vitor Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>8233.48</v>
+        <v>4231.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70928</v>
+        <v>72316</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Clara Peixoto</t>
+          <t>Breno Sales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>12327.62</v>
+        <v>11937.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60365</v>
+        <v>80119</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Campos</t>
+          <t>Juliana Santos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>7916.23</v>
+        <v>8323.049999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24686</v>
+        <v>82541</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Henrique Gomes</t>
+          <t>Vitória Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,85 +610,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>7955.45</v>
+        <v>3450.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96364</v>
+        <v>17544</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ian da Rosa</t>
+          <t>Danilo da Rosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>10116.01</v>
+        <v>6181.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67441</v>
+        <v>45184</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brenda Castro</t>
+          <t>Cecília Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>6716.53</v>
+        <v>12418.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99987</v>
+        <v>38749</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cecília Pereira</t>
+          <t>Gabriel Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>9582.690000000001</v>
+        <v>10638.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28042</v>
+        <v>82875</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Luiz Viana</t>
+          <t>João Felipe Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>4424.57</v>
+        <v>10099.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24206</v>
+        <v>51058</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Vicente Lopes</t>
+          <t>João da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45096</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>11060.52</v>
+        <v>6470.67</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_0.xlsx
+++ b/data/input/absenteeism_data_0.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40907</v>
+        <v>82526</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Correia</t>
+          <t>Bruno Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>4274.58</v>
+        <v>5989.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74361</v>
+        <v>54036</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Vitor Carvalho</t>
+          <t>Dr. Davi Lucca Lopes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,53 +526,53 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>4231.51</v>
+        <v>4437.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72316</v>
+        <v>45797</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Breno Sales</t>
+          <t>Sr. Davi Luiz Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>11937.86</v>
+        <v>6024.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80119</v>
+        <v>65239</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juliana Santos</t>
+          <t>Dr. Raul Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,143 +581,143 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>8323.049999999999</v>
+        <v>12001.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82541</v>
+        <v>11886</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vitória Souza</t>
+          <t>Calebe Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>3450.08</v>
+        <v>6377.39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17544</v>
+        <v>84671</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Danilo da Rosa</t>
+          <t>Beatriz Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>6181.47</v>
+        <v>3090.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45184</v>
+        <v>91035</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cecília Monteiro</t>
+          <t>Lívia Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>12418.27</v>
+        <v>10158.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38749</v>
+        <v>90209</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabriel Rezende</t>
+          <t>Miguel Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>10638.77</v>
+        <v>6631.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82875</v>
+        <v>37561</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Felipe Moura</t>
+          <t>Vitor Gabriel Jesus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>10099.44</v>
+        <v>9561.540000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51058</v>
+        <v>29958</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João da Cruz</t>
+          <t>Alice Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>6470.67</v>
+        <v>12321.56</v>
       </c>
     </row>
   </sheetData>
